--- a/biology/Zoologie/Biologie_animale/Biologie_animale.xlsx
+++ b/biology/Zoologie/Biologie_animale/Biologie_animale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La biologie animale est la partie de la biologie qui s'intéresse plus particulièrement aux animaux et qui se distingue ainsi de la biologie végétale ou de la biologie cellulaire. C'est une discipline de la science du vivant, des organismes et des espèces animales ainsi que des théories évolutionnistes. 
 Le premier classificateur connu des animaux fut Aristote, dans son traité Histoire des animaux. 
